--- a/input/sample_2/analytical calibration/calibration parameters.xlsx
+++ b/input/sample_2/analytical calibration/calibration parameters.xlsx
@@ -8,14 +8,47 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwal5\Documents\GitHub\SMAREACTcleaned\input\sample_2\analytical calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1492306F-74E1-4CD2-B12A-856257009136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00158AD-0ED2-43B3-889D-BD0A14FD71D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{868CF7E1-07D3-4329-A985-3AC0D777E8EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="2" r:id="rId1"/>
     <sheet name="E_A, C_A, and C_M" sheetId="1" r:id="rId2"/>
+    <sheet name="E_M, alpha, H_cur" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'E_M, alpha, H_cur'!$B$13,'E_M, alpha, H_cur'!$B$14,'E_M, alpha, H_cur'!$B$15,'E_M, alpha, H_cur'!$B$17,'E_M, alpha, H_cur'!$B$18</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'E_M, alpha, H_cur'!$B$13</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'E_M, alpha, H_cur'!$L$9</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'E_M, alpha, H_cur'!$E$13</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
   <si>
     <t>Stress [MPa]</t>
   </si>
@@ -137,12 +170,80 @@
   </si>
   <si>
     <t>Reported in Bigelow</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>delta_eps (True) [mm/mm]</t>
+  </si>
+  <si>
+    <t>delta_eps (calculated) [mm/mm]</t>
+  </si>
+  <si>
+    <t>T_M [C]</t>
+  </si>
+  <si>
+    <t>T_M [K]</t>
+  </si>
+  <si>
+    <t>eps_M [%]</t>
+  </si>
+  <si>
+    <t>eps_M [mm/mm]</t>
+  </si>
+  <si>
+    <t>eps_A [%]</t>
+  </si>
+  <si>
+    <t>eps_A [mm/mm]</t>
+  </si>
+  <si>
+    <t>T_A [K]</t>
+  </si>
+  <si>
+    <t>T_A [C]</t>
+  </si>
+  <si>
+    <t>Squared error</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>Optimized Parameter Values</t>
+  </si>
+  <si>
+    <t>Analytical calibration</t>
+  </si>
+  <si>
+    <t>Optimization calibration</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>calibration stress</t>
+  </si>
+  <si>
+    <t>MVF tol</t>
+  </si>
+  <si>
+    <t>Stress [GPa]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assumed. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,10 +281,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -312,6 +429,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2772,12 +2890,141 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="700" row="4">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{A409380B-CD52-4167-BC92-7DF0A1B1BC4E}">
+  <we:reference id="wa104100404" version="3.0.0.1" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA104100404" version="3.0.0.1" store="WA104100404" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="UniqueID" value="&quot;20241211708551438994&quot;"/>
+    <we:property name="BipY" value="&quot;&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpfRcz" value="&quot;bQQWTA==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpfxQhLlkb" value="&quot;ew==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpZBQrClEXDRNF" value="&quot;bQoWRG0=&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpZBQrClEXDRNFWQ==" value="&quot;bQoWRGw=&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpZBQrClEXDRNFWA==" value="&quot;&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpZBQrClEXDRNFWg==" value="&quot;bQoWRG4=&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpZBQrClEXDRNFWw==" value="&quot;bQoWRGE=&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpZBQrClEXDRNFXA==" value="&quot;bQoWRGo=&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPhhDBQ==" value="&quot;fA==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPhpeG2k=" value="&quot;bQoWRG0=&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPgRTBGk=" value="&quot;aXYPVQ==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPgReG2k=" value="&quot;ew0DRQ==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPhpeG2o=" value="&quot;bQoWRGw=&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPgRTBGo=" value="&quot;aXQPVQ==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPgReG2o=" value="&quot;eA0fQA==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPhpeG2s=" value="&quot;bQoWRG4=&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPgRTBGs=" value="&quot;aXQPVQ==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPgReG2s=" value="&quot;eWYCQA==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPhpeG2w=" value="&quot;bQoWRGE=&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPgRTBGw=" value="&quot;aXQPVQ==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPgReG2w=" value="&quot;eA0fQg==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPgZEDQ==" value="&quot;eWYCRWlTAEVRRw==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPhVADw==" value="&quot;eWYCRWlTAEVRRw==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPhNFHA==" value="&quot;eA==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPhhBHA==" value="&quot;eA==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPgVVBA==" value="&quot;eA==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPhtFBA==" value="&quot;eA==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPgJbGw==" value="&quot;eQ==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPgRUHg==" value="&quot;eQ==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPgVFEg==" value="&quot;eH0=&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPgRFDA==" value="&quot;&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPh1fHg==" value="&quot;&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPgJZBA==" value="&quot;eQ==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPgRaEA==" value="&quot;eQ==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPhNYDw==" value="&quot;DD5d&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpURowDW8FEx9bCTQTGhY=" value="&quot;eWYCRWlTAEVQ&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpURowDW8RFBdaHDcL" value="&quot;eWYCRWlTAEVQ&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpURowDW8FExNFBzQREEs=" value="&quot;eA==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpURowDW8cDwJTDz0VBQgsO10ZLwY=" value="&quot;eA==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpURowDW8WFAJCESgC" value="&quot;eA==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpURowDW8dBANEGw==" value="&quot;eA==&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgQFC4=" value="&quot;Dhp1&quot;"/>
+    <we:property name="GiBXEC1RETgADnsBNg==" value="&quot;eA==&quot;"/>
+    <we:property name="GiBXEC1REToDHA==" value="&quot;&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgbHy4=" value="&quot;eA==&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgFCCw=" value="&quot;eWYCRWlTAEQ=&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgGGSU=" value="&quot;eA==&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgHFjE=" value="&quot;eQ==&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgBFSU=" value="&quot;eWYCRA==&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgWDC4=" value="&quot;eWYCRWlS&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgYCSU=" value="&quot;eQ==&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgGCTM=" value="&quot;eHgC&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgHCS0=" value="&quot;eQ==&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgYCD0=" value="&quot;eWYCQmw=&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgYFCA=" value="&quot;eng=&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgHGD8=" value="&quot;eA==&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgbDjs=" value="&quot;ew==&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgUGSo=" value="&quot;eWYCRWg=&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgHHzo=" value="&quot;fA==&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgUCDo=" value="&quot;eA==&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgGDig=" value="&quot;eQ==&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgYHz0=" value="&quot;ew==&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgGFSo=" value="&quot;eQ==&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgZCj0=" value="&quot;eQ==&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgZCjk=" value="&quot;eQ==&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgSGzk=" value="&quot;eWYCRWlTAEQ=&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgcCjo=" value="&quot;eWYLTA==&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgTHyg=" value="&quot;eWYCRWlTAEQ=&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgcCiA=" value="&quot;eA==&quot;"/>
+    <we:property name="GiBXEC1REQYOGkANKjgcCi0=" value="&quot;eg==&quot;"/>
+    <we:property name="GTpdESwARFUsH05JKwgZDCw6bRssDg==" value="&quot;ew==&quot;"/>
+    <we:property name="GTpdESwARFUsH05JKwgZDCw6bQc8DwE=" value="&quot;aXQPVQ==&quot;"/>
+    <we:property name="GTpdESwARFUsH05JKwgZDCw6bQc8DwI=" value="&quot;aXYPVQ==&quot;"/>
+    <we:property name="GTpdESwARFUsH05JKwgZDCw6bRkxEAE=" value="&quot;bQsWRGhZFDZFRwM=&quot;"/>
+    <we:property name="GTpdESwARFUsH05JKwgZDCw6bQcxEAE=" value="&quot;bQoWRGhZFDdFRwM=&quot;"/>
+    <we:property name="GTpdESwARFUsH05JKwgZDCw6bRkxEAI=" value="&quot;bQwWTGNHdlFY&quot;"/>
+    <we:property name="GTpdESwARFUsH05JKwgZDCw6bQcxEAI=" value="&quot;eQ==&quot;"/>
+    <we:property name="GTpdESwARFUsH05JDgYHEygqXhAq" value="&quot;bQwWTGNHdlFY&quot;"/>
+    <we:property name="GTpdESwARFUsH05JFwUf" value="&quot;bQwWRGE=&quot;"/>
+    <we:property name="GTpdESwARFUsH05JFQYNNyAm" value="&quot;eA==&quot;"/>
+    <we:property name="GTpdESwARFUsH05JKwgZDCw6bRA3BA==" value="&quot;eQ==&quot;"/>
+    <we:property name="GTpdESwARFUsH05JKwgZDCw6bRs8BA==" value="&quot;eA==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPhhTDw==" value="&quot;eA==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPhtEHA==" value="&quot;eWYCQmw=&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPhtYAQ==" value="&quot;eng=&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPhpeG20=" value="&quot;bQoWRGo=&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPgRTBG0=" value="&quot;aXYPVQ==&quot;"/>
+    <we:property name="DBd/WXkCXAUJFxpIEDgWDztpQRo1FVUHPgReG20=" value="&quot;bQoWRG0=&quot;"/>
+  </we:properties>
+  <we:bindings>
+    <we:binding id="refEdit" type="matrix" appref="{D6FD3EC3-6EC8-4CCD-89DF-FFB2C9B12AA0}"/>
+    <we:binding id="Worker" type="matrix" appref="{E7CED343-7F53-46D4-88D3-4227EF6EB757}"/>
+    <we:binding id="Var$B$14" type="matrix" appref="{4331C9CF-6E06-449B-97AA-E4EEEABD8DE8}"/>
+    <we:binding id="Var$B$17" type="matrix" appref="{056146B7-F384-447C-AA2E-6149885780AD}"/>
+    <we:binding id="Var$B$15" type="matrix" appref="{4E1C0F94-B463-4968-94DC-A7C9527A5F30}"/>
+    <we:binding id="Var$B$18" type="matrix" appref="{9F27B2B0-0069-4579-BF57-FEC2F23BE67C}"/>
+    <we:binding id="Sheet2refEdit" type="matrix" appref="{738F4DB0-0990-4D9C-BB4E-609DCAB8882F}"/>
+    <we:binding id="Sheet2Worker" type="matrix" appref="{0141DFA1-6BDF-4AE9-807C-9E2FE34201D9}"/>
+    <we:binding id="Var$D$9:$F$9" type="matrix" appref="{8D9CD32A-E826-438C-98B1-83B8B9394E5D}"/>
+    <we:binding id="Product MixrefEdit" type="matrix" appref="{998F7985-7866-41C8-A6F5-5C310B054A0B}"/>
+    <we:binding id="Product MixWorker" type="matrix" appref="{BB5928C7-E468-448A-94BA-E85F6775093B}"/>
+    <we:binding id="Var0" type="matrix" appref="{BD73BD8A-A7FE-40F0-B67A-FF86379BD1E4}"/>
+    <we:binding id="1Var0" type="matrix" appref="{34023B5D-73A7-46EB-8C29-CFFAEA1EC154}"/>
+    <we:binding id="2Var0" type="matrix" appref="{0F2AE789-1381-438D-83BB-E0C2BFDE06A9}"/>
+    <we:binding id="Obj" type="matrix" appref="{99C3A037-A95F-48F0-9736-873EE667611F}"/>
+    <we:binding id="E_M, alpha, H_currefEdit" type="matrix" appref="{A96B0EA8-4214-4FBA-A3AE-14B087C2DD13}"/>
+    <we:binding id="E_M, alpha, H_curWorker" type="matrix" appref="{28AA69A5-DFFE-4B2C-822D-3001935522B2}"/>
+  </we:bindings>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CA58A8-8AD1-46D1-9135-1155AFE94C1D}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2788,70 +3035,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2">
-        <v>20000000000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2">
-        <v>78387000000</v>
+        <v>17390000000</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>54514000000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <f>180+273.15</f>
         <v>453.15</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f>B4-5</f>
-        <v>448.15</v>
-      </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
@@ -2861,27 +3100,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f>B5-5</f>
+        <v>448.15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f>208+273.15</f>
         <v>481.15</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f>B6+5</f>
-        <v>486.15</v>
-      </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
@@ -2891,24 +3130,25 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
-        <v>16540000</v>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f>B7+5</f>
+        <v>486.15</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>16250000</v>
+        <v>16540000</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -2919,41 +3159,41 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>16250000</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>1.771E-2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1.219E-8</v>
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>1.6959999999999999E-2</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
@@ -2961,13 +3201,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>1.261E-8</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -2975,35 +3215,35 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
-        <v>9.1099999999999992E-6</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>8.8179999999999993E-6</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -3017,7 +3257,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -3031,7 +3271,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -3043,8 +3283,277 @@
         <v>32</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2">
+        <v>18800000000</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="2">
+        <v>54500000000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>452.18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>430.86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>467.22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>494.29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2">
+        <v>11060000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2">
+        <v>14100000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>1.5980000000000001E-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1.4100000000000001E-8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="2">
+        <v>4.4700000000000004E-6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="2">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1E-4</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A22:C22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
+      <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x15:webExtension appRef="{738F4DB0-0990-4D9C-BB4E-609DCAB8882F}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{0141DFA1-6BDF-4AE9-807C-9E2FE34201D9}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{8D9CD32A-E826-438C-98B1-83B8B9394E5D}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{998F7985-7866-41C8-A6F5-5C310B054A0B}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{BB5928C7-E468-448A-94BA-E85F6775093B}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+      </x15:webExtensions>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3052,11 +3561,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82EE00C-5529-4307-9FE7-F3D1BFCE156B}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -3068,6 +3580,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
@@ -3080,6 +3595,10 @@
         <f>B2/100</f>
         <v>6.5469999999999999E-3</v>
       </c>
+      <c r="D2">
+        <f>A2*1000000</f>
+        <v>400000000</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
@@ -3092,6 +3611,10 @@
         <f t="shared" ref="C3:C7" si="0">B3/100</f>
         <v>5.1380000000000002E-3</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="1">A3*1000000</f>
+        <v>300000000</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
@@ -3104,6 +3627,10 @@
         <f t="shared" si="0"/>
         <v>3.8369999999999997E-3</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>200000000</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
@@ -3116,6 +3643,10 @@
         <f t="shared" si="0"/>
         <v>2.6210000000000001E-3</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>100000000</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
@@ -3128,6 +3659,10 @@
         <f t="shared" si="0"/>
         <v>2.042E-3</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>50000000</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
@@ -3139,6 +3674,10 @@
       <c r="C7">
         <f t="shared" si="0"/>
         <v>1.4966999999999999E-3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>7000000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -3196,4 +3735,689 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B637A22-FC42-4238-A395-9AE3846A408C}">
+  <dimension ref="A1:XFD1048575"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.06640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="4">
+        <v>400</v>
+      </c>
+      <c r="B2" s="4">
+        <v>30.649000000000001</v>
+      </c>
+      <c r="C2" s="4">
+        <f>B2+273.15</f>
+        <v>303.79899999999998</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.6116999999999999</v>
+      </c>
+      <c r="E2" s="4">
+        <f>D2/100</f>
+        <v>3.6116999999999996E-2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>349.87799999999999</v>
+      </c>
+      <c r="G2" s="4">
+        <f>F2+273.15</f>
+        <v>623.02800000000002</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="I2" s="4">
+        <f>H2/100</f>
+        <v>6.5469999999999999E-3</v>
+      </c>
+      <c r="J2" s="5">
+        <f>E2-I2</f>
+        <v>2.9569999999999996E-2</v>
+      </c>
+      <c r="K2" s="5">
+        <f>A2*1000000*(1/$B$14-1/$B$13)+$B$15*(C2-G2) + $B$16 + ($B$17-$B$16)*(1-EXP(-$B$18*(A2*1000000-$B$19)))</f>
+        <v>2.9699842675515644E-2</v>
+      </c>
+      <c r="L2" s="7">
+        <f>(J2-K2)^2</f>
+        <v>1.6859120385061969E-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="4">
+        <v>300</v>
+      </c>
+      <c r="B3" s="4">
+        <v>30.608000000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C7" si="0">B3+273.15</f>
+        <v>303.75799999999998</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3.0707</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E7" si="1">D3/100</f>
+        <v>3.0706999999999998E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>349.83199999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G7" si="2">F3+273.15</f>
+        <v>622.98199999999997</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.51380000000000003</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I7" si="3">H3/100</f>
+        <v>5.1380000000000002E-3</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J7" si="4">E3-I3</f>
+        <v>2.5568999999999998E-2</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:K7" si="5">A3*1000000*(1/$B$14-1/$B$13)+$B$15*(C3-G3) + $B$16 + ($B$17-$B$16)*(1-EXP(-$B$18*(A3*1000000-$B$19)))</f>
+        <v>2.5507289750204932E-2</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" ref="L3:L7" si="6">(J3-K3)^2</f>
+        <v>3.8081549297694583E-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="4">
+        <v>200</v>
+      </c>
+      <c r="B4" s="4">
+        <v>30.65</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>303.79999999999995</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.4472800000000001</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4472800000000003E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>349.83199999999999</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="2"/>
+        <v>622.98199999999997</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.38369999999999999</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="3"/>
+        <v>3.8369999999999997E-3</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="4"/>
+        <v>2.0635800000000003E-2</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="5"/>
+        <v>2.0615664889565621E-2</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" si="6"/>
+        <v>4.0542267220473374E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="4">
+        <v>100</v>
+      </c>
+      <c r="B5" s="4">
+        <v>30.608000000000001</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>303.75799999999998</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.5951</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5951E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>349.83199999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="2"/>
+        <v>622.98199999999997</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.2621</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="3"/>
+        <v>2.6210000000000001E-3</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="4"/>
+        <v>1.333E-2</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="5"/>
+        <v>1.3255158963042808E-2</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" si="6"/>
+        <v>5.6011808128277214E-9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="4">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4">
+        <v>30.745000000000001</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>303.89499999999998</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
+        <v>9.1459999999999996E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>349.87799999999999</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="2"/>
+        <v>623.02800000000002</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.20419999999999999</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="3"/>
+        <v>2.042E-3</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="4"/>
+        <v>7.1039999999999992E-3</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="5"/>
+        <v>7.0756635688761157E-3</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="6"/>
+        <v>8.0295332883859091E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>30.714099999999998</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>303.86409999999995</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.78E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="1"/>
+        <v>3.7800000000000003E-4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>350.01600000000002</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="2"/>
+        <v>623.16599999999994</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.1497</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4970000000000001E-3</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.119E-3</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.1085929291118296E-3</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="6"/>
+        <v>1.0830712447140324E-10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="K9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="7">
+        <f>SQRT(AVERAGE(L2:L7))</f>
+        <v>6.7805038226243276E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>54514000000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="L13"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>17390000000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="L14"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>8.8179999999999993E-6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="L15"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="L16"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.6959999999999999E-2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="L17"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.261E-8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="L18"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="L19"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="1048550" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048550">
+        <f>solver_pre</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="1048551" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048551">
+        <f>solver_scl</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048552" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048552">
+        <f>solver_rlx</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1048553" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048553">
+        <f>solver_tol</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1048554" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048554">
+        <f>solver_cvg</f>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="1048555" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048555" t="e">
+        <f>AREAS(solver_adj1)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048556" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048556">
+        <f>solver_ssz</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1048557" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048557">
+        <f>solver_rsd</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048558" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048558">
+        <f>solver_mrt</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1048559" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048559">
+        <f>solver_mni</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1048560" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048560">
+        <f>solver_rbv</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1048561" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048561">
+        <f>solver_neg</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048562" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048562" t="e">
+        <f>solver_ntr</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048563" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048563" t="e">
+        <f>solver_acc</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048564" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048564" t="e">
+        <f>solver_res</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048565" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048565" t="e">
+        <f>solver_ars</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048566" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048566" t="e">
+        <f>solver_sta</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048567" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048567" t="e">
+        <f>solver_met</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048568" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048568" t="e">
+        <f>solver_soc</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048569" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048569" t="e">
+        <f>solver_lpt</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048570" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048570" t="e">
+        <f>solver_lpp</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048571" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048571" t="e">
+        <f>solver_gap</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048572" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048572" t="e">
+        <f>solver_ips</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048573" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048573" t="e">
+        <f>solver_fea</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048574" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048574" t="e">
+        <f>solver_ipi</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1048575" spans="16384:16384" x14ac:dyDescent="0.45">
+      <c r="XFD1048575" t="e">
+        <f>solver_ipd</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
+      <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x15:webExtension appRef="{D6FD3EC3-6EC8-4CCD-89DF-FFB2C9B12AA0}">
+          <xm:f>'E_M, alpha, H_cur'!1:1048576</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{E7CED343-7F53-46D4-88D3-4227EF6EB757}">
+          <xm:f>'E_M, alpha, H_cur'!XFD1048550:XFD1048575</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{4331C9CF-6E06-449B-97AA-E4EEEABD8DE8}">
+          <xm:f>'E_M, alpha, H_cur'!$B$14</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{056146B7-F384-447C-AA2E-6149885780AD}">
+          <xm:f>'E_M, alpha, H_cur'!$B$17</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{4E1C0F94-B463-4968-94DC-A7C9527A5F30}">
+          <xm:f>'E_M, alpha, H_cur'!$B$15</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{9F27B2B0-0069-4579-BF57-FEC2F23BE67C}">
+          <xm:f>'E_M, alpha, H_cur'!$B$18</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{BD73BD8A-A7FE-40F0-B67A-FF86379BD1E4}">
+          <xm:f>'E_M, alpha, H_cur'!$B$14</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{34023B5D-73A7-46EB-8C29-CFFAEA1EC154}">
+          <xm:f>'E_M, alpha, H_cur'!$B$15</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{0F2AE789-1381-438D-83BB-E0C2BFDE06A9}">
+          <xm:f>'E_M, alpha, H_cur'!$B$17</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{99C3A037-A95F-48F0-9736-873EE667611F}">
+          <xm:f>'E_M, alpha, H_cur'!$L$9</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{A96B0EA8-4214-4FBA-A3AE-14B087C2DD13}">
+          <xm:f>'E_M, alpha, H_cur'!1:1048576</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{28AA69A5-DFFE-4B2C-822D-3001935522B2}">
+          <xm:f>'E_M, alpha, H_cur'!XFD1048550:XFD1048575</xm:f>
+        </x15:webExtension>
+      </x15:webExtensions>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/input/sample_2/analytical calibration/calibration parameters.xlsx
+++ b/input/sample_2/analytical calibration/calibration parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwal5\Documents\GitHub\SMAREACTcleaned\input\sample_2\analytical calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00158AD-0ED2-43B3-889D-BD0A14FD71D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0ADF8E-13E2-45E3-976E-11F4AB0A8921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{868CF7E1-07D3-4329-A985-3AC0D777E8EE}"/>
+    <workbookView xWindow="10260" yWindow="0" windowWidth="10260" windowHeight="13080" firstSheet="1" activeTab="1" xr2:uid="{868CF7E1-07D3-4329-A985-3AC0D777E8EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="2" r:id="rId1"/>
@@ -3021,10 +3021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CA58A8-8AD1-46D1-9135-1155AFE94C1D}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3034,14 +3034,14 @@
     <col min="4" max="4" width="61.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3082,8 +3082,9 @@
       <c r="D4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3113,7 +3114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3157,7 +3158,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3171,7 +3172,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3185,7 +3186,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3199,7 +3200,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3227,7 +3228,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3561,8 +3562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82EE00C-5529-4307-9FE7-F3D1BFCE156B}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
